--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman CYR"/>
@@ -138,6 +138,11 @@
       <i/>
       <sz val="8"/>
       <name val="Times New Roman CYR"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -183,7 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,6 +241,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7984,9 +8001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7994,7 +8013,7 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -8018,7 +8037,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -8042,7 +8061,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8060,7 +8079,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -8109,8 +8128,11 @@
       <c r="P4" s="11">
         <v>2019</v>
       </c>
+      <c r="Q4" s="19">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8159,8 +8181,11 @@
       <c r="P5" s="12">
         <v>2.9455012027627743</v>
       </c>
+      <c r="Q5" s="20">
+        <v>2.9534052231477723</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -8209,8 +8234,11 @@
       <c r="P6" s="14">
         <v>3.6842173727274456</v>
       </c>
+      <c r="Q6" s="21">
+        <v>3.5252569874598594</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -8259,8 +8287,11 @@
       <c r="P7" s="16">
         <v>2.4795109905924768</v>
       </c>
+      <c r="Q7" s="22">
+        <v>2.5840605000768084</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8278,7 +8309,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8296,7 +8327,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8314,7 +8345,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8332,7 +8363,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8350,7 +8381,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -8368,7 +8399,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8386,7 +8417,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -8404,7 +8435,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>

--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -8003,13 +8003,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="31.75" style="9" customWidth="1"/>
+    <col min="1" max="3" width="27.625" style="9" customWidth="1"/>
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>

--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,6 +254,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -8001,7 +8004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8011,7 +8014,7 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -8035,7 +8038,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -8059,7 +8062,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8077,7 +8080,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -8129,8 +8132,11 @@
       <c r="Q4" s="19">
         <v>2020</v>
       </c>
+      <c r="R4" s="19">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8182,8 +8188,11 @@
       <c r="Q5" s="20">
         <v>2.9534052231477723</v>
       </c>
+      <c r="R5" s="23">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -8235,8 +8244,11 @@
       <c r="Q6" s="21">
         <v>3.5252569874598594</v>
       </c>
+      <c r="R6" s="24">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -8288,8 +8300,11 @@
       <c r="Q7" s="22">
         <v>2.5840605000768084</v>
       </c>
+      <c r="R7" s="25">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8307,7 +8322,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8325,7 +8340,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8343,7 +8358,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8361,7 +8376,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8379,7 +8394,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -8397,7 +8412,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8415,7 +8430,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -8433,7 +8448,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>

--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -8004,9 +8004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8014,7 +8016,7 @@
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -8038,7 +8040,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -8062,7 +8064,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8080,7 +8082,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -8135,8 +8137,11 @@
       <c r="R4" s="19">
         <v>2021</v>
       </c>
+      <c r="S4" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8191,8 +8196,11 @@
       <c r="R5" s="23">
         <v>2.8</v>
       </c>
+      <c r="S5" s="24">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -8247,8 +8255,11 @@
       <c r="R6" s="24">
         <v>3.3</v>
       </c>
+      <c r="S6" s="24">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -8303,8 +8314,11 @@
       <c r="R7" s="25">
         <v>2.5</v>
       </c>
+      <c r="S7" s="25">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8322,7 +8336,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8340,7 +8354,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8358,7 +8372,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8376,7 +8390,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8394,7 +8408,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -8412,7 +8426,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8430,7 +8444,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -8448,7 +8462,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>

--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -76,9 +76,6 @@
     <t>1.3.1.1е Уровень официально зарегистрированных безработных</t>
   </si>
   <si>
-    <t>1.3.1.e. Share of officially registered unemployed</t>
-  </si>
-  <si>
     <t>(в процентах)</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   <si>
     <t>1.3.1.1e Жумушсуз расмий катталгандардын дэңгээли</t>
   </si>
+  <si>
+    <t>1.3.1.1e Share of officially registered unemployed</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman CYR"/>
@@ -138,11 +138,6 @@
       <i/>
       <sz val="8"/>
       <name val="Times New Roman CYR"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -188,7 +183,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -205,9 +200,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -221,19 +213,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -242,21 +225,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 17" xfId="1"/>
@@ -8007,137 +7975,137 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="9"/>
+    <col min="1" max="3" width="27.625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
+      <c r="D1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>2007</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2008</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>2009</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>2010</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>2011</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2012</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>2013</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>2014</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>2015</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>2016</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>2017</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>2018</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>2019</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="10">
         <v>2020</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="10">
         <v>2021</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="10">
         <v>2022</v>
       </c>
     </row>
@@ -8169,45 +8137,45 @@
       <c r="I5" s="2">
         <v>2.4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="2">
         <v>2.3654960100457734</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="2">
         <v>2.3259312139814079</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="2">
         <v>2.2013871948849415</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="2">
         <v>2.181766935602242</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="2">
         <v>2.280167830617009</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="2">
         <v>2.7915163068120967</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="2">
         <v>2.9455012027627743</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="2">
         <v>2.9534052231477723</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="2">
         <v>2.8</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="2">
         <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3">
@@ -8228,39 +8196,39 @@
       <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="3">
         <v>3.0221664994984954</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="3">
         <v>2.9246908564880174</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="3">
         <v>2.8513557834903436</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="3">
         <v>2.8755827393105196</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="3">
         <v>2.9652718283986399</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="3">
         <v>3.6126110505652993</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="3">
         <v>3.6842173727274456</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="3">
         <v>3.5252569874598594</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="3">
         <v>3.3</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="3">
         <v>3.1</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8275,7 +8243,7 @@
       <c r="E7" s="5">
         <v>2.4713025645485871</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2.1533390656348526</v>
       </c>
       <c r="G7" s="5">
@@ -8287,342 +8255,342 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="5">
         <v>1.9206359991846167</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="5">
         <v>1.9027124347625157</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="5">
         <v>1.7496457603557865</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="5">
         <v>1.7087790364717217</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="5">
         <v>1.8401903663146832</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="5">
         <v>2.2763374692782934</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="5">
         <v>2.4795109905924768</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="5">
         <v>2.5840605000768084</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="5">
         <v>2.5</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/untranslated/downloads/data-excel/1.3.1.1e.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.1e.xlsx
@@ -79,9 +79,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in percents)</t>
-  </si>
-  <si>
     <t>(пайыз менен)</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>1.3.1.1e Share of officially registered unemployed</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -7972,27 +7972,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="4" max="20" width="8.625" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="7"/>
@@ -8008,15 +8007,15 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
@@ -8032,7 +8031,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8050,7 +8049,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -8108,8 +8107,11 @@
       <c r="S4" s="10">
         <v>2022</v>
       </c>
+      <c r="T4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8167,8 +8169,11 @@
       <c r="S5" s="2">
         <v>2.8</v>
       </c>
+      <c r="T5" s="2">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -8226,8 +8231,11 @@
       <c r="S6" s="3">
         <v>3.1</v>
       </c>
+      <c r="T6" s="3">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -8285,8 +8293,11 @@
       <c r="S7" s="5">
         <v>2.5</v>
       </c>
+      <c r="T7" s="5">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8304,7 +8315,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8322,7 +8333,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8340,7 +8351,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8358,7 +8369,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8376,7 +8387,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8394,7 +8405,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8412,7 +8423,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8430,7 +8441,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
